--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Rb931d1bca47b4e33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R73ae75df784c49ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re2474430b2fc47d4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff1a94241e2a41e4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9be29d303d2343b5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc9f351cbea2f44e8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R73ae75df784c49ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R98aee49778944ac9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff1a94241e2a41e4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R20705a575b344b1d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc9f351cbea2f44e8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3eff8f2b237f438c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R98aee49778944ac9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Rfb6acd082d294319"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R20705a575b344b1d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R051c4c59a22b4d78"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3eff8f2b237f438c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R72347ca55af44dcf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Rfb6acd082d294319"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Rf0d14893cdf74534"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R051c4c59a22b4d78"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c9f332f23de44e2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R72347ca55af44dcf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R80617c4de2d74bb1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Rf0d14893cdf74534"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Rb0ebe0fc602f4fdd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c9f332f23de44e2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbe12ab8ae28b4cf0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R80617c4de2d74bb1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6f404a3f6a1441ee"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Rb0ebe0fc602f4fdd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R7906a395bf824104"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbe12ab8ae28b4cf0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R490bd7f4e5c945da"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6f404a3f6a1441ee"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ffab5e1c18741cb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R7906a395bf824104"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R5259dbe6e6204c80"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R490bd7f4e5c945da"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff72d6bfec6a40b1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ffab5e1c18741cb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9fcdb1554c7c4d19"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R5259dbe6e6204c80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R6b224fc5c2a64f4a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff72d6bfec6a40b1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2bf39e48f5654682"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9fcdb1554c7c4d19"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rddf3dfa813174f84"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R6b224fc5c2a64f4a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R3c53e72568d34954"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2bf39e48f5654682"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf31ba88492854ce7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rddf3dfa813174f84"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra41f2c734c084674"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R3c53e72568d34954"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R62974275c585474c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf31ba88492854ce7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5973e5b0edbc46c2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra41f2c734c084674"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re813d040007b4454"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R62974275c585474c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R44784fd34cbc42a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5973e5b0edbc46c2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5227c19468444a9f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re813d040007b4454"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra82cbea78a2a4718"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R44784fd34cbc42a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Ra447d7059a0b48d1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5227c19468444a9f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd2497fef3c484f90"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra82cbea78a2a4718"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R821ea48413b24707"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/102_AreaChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="Ra447d7059a0b48d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Website Traffic" sheetId="1" r:id="R7d1790c7ee8c43f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -194,7 +194,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd2497fef3c484f90"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd73be095e7ab45a9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R821ea48413b24707"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9119bcb08a874eaf"/>
 </x:worksheet>
 </file>